--- a/Dev/PythonDev/Work/Testing/Augmented Reality/Occlussion.xlsx
+++ b/Dev/PythonDev/Work/Testing/Augmented Reality/Occlussion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Workspace\AI\Thesis\FinalYearProject\FYPWAAR\Dev\PythonDev\Work\Testing\Augmented Reality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129A177B-5AE7-4C9A-B4FB-F6976E36FCDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D7AE6C-DEAF-40A6-8B56-D4E45129A894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11160" yWindow="105" windowWidth="23910" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="14">
   <si>
     <t>TestImageTarget</t>
   </si>
@@ -104,10 +104,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,38 +389,41 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>0.25</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.75</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0.25</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>0.5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>0.75</v>
       </c>
     </row>
@@ -453,6 +454,24 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -481,6 +500,24 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -532,27 +569,95 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Dev/PythonDev/Work/Testing/Augmented Reality/Occlussion.xlsx
+++ b/Dev/PythonDev/Work/Testing/Augmented Reality/Occlussion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Workspace\AI\Thesis\FinalYearProject\FYPWAAR\Dev\PythonDev\Work\Testing\Augmented Reality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D7AE6C-DEAF-40A6-8B56-D4E45129A894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749F1006-3D50-4CE1-9811-86ACB4172C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11160" yWindow="105" windowWidth="23910" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-2616" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="14">
-  <si>
-    <t>TestImageTarget</t>
-  </si>
-  <si>
-    <t>TestModelTarget</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Abessinia</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>Takanami</t>
@@ -66,7 +57,16 @@
     <t>CCBIll</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Recognition Strength to Occlusion</t>
+  </si>
+  <si>
+    <t>Image Target</t>
+  </si>
+  <si>
+    <t>Model Target</t>
+  </si>
+  <si>
+    <t>Coffee Machine</t>
   </si>
 </sst>
 </file>
@@ -102,10 +102,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,6 +119,1118 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Model</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Targets' </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Recognition Strength to Occlusion</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recognition Strength to Occlusion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$13:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Abessinia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Takanami</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ayanami</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Titanic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Brittanic</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Enola</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Hellespont</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pomeranian</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sirenia</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CCBIll</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Coffee Machine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A423-4BF0-935D-A806CAF537DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="352350288"/>
+        <c:axId val="958723376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="352350288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Model</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Targets</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="958723376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="958723376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t> Occlusion</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Percentage</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352350288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>415563</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F0EE44-C923-4992-AB3E-233C1B8EE7C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,267 +1507,192 @@
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
+      <c r="B3">
         <v>0.25</v>
       </c>
-      <c r="C2" s="1">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>0.5</v>
       </c>
-      <c r="D2" s="1">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>0.75</v>
       </c>
-      <c r="E2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="F2" s="1">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>0.5</v>
       </c>
-      <c r="G2" s="1">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3</v>
+      <c r="B16">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>